--- a/Product List.xlsx
+++ b/Product List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anwaysomani\Documents\GitHub\apoorvasomani.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anway\OneDrive\Documents\GitHub\apoorvasomani.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A639FB-3AD2-48F1-9ADF-C8044DE273D6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -90,12 +91,66 @@
   </si>
   <si>
     <t>under eye cream</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>Gel</t>
+  </si>
+  <si>
+    <t>Cleansing Milk</t>
+  </si>
+  <si>
+    <t>Cream</t>
+  </si>
+  <si>
+    <t>Soap</t>
+  </si>
+  <si>
+    <t>Tonic</t>
+  </si>
+  <si>
+    <t>Moisturiser</t>
+  </si>
+  <si>
+    <t>After waxing gel</t>
+  </si>
+  <si>
+    <t>Aloevera Cleansing Milk</t>
+  </si>
+  <si>
+    <t>Anti Dandruff Pack</t>
+  </si>
+  <si>
+    <t>Anti Pimple and dark spot cream</t>
+  </si>
+  <si>
+    <t>Anti wrinkle pack</t>
+  </si>
+  <si>
+    <t>neem tulsi and aloevera soap</t>
+  </si>
+  <si>
+    <t>aloevera gel</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>Amla Shampoo</t>
+  </si>
+  <si>
+    <t>Shikakai Shampoo</t>
+  </si>
+  <si>
+    <t>Lemon Shampoo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,15 +160,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,12 +200,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,95 +530,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -504,17 +732,17 @@
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
